--- a/Editable.xlsx
+++ b/Editable.xlsx
@@ -652,10 +652,8 @@
           <t>Chigodorodo</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>3006854654</t>
-        </is>
+      <c r="E10" t="n">
+        <v>3006854654</v>
       </c>
     </row>
   </sheetData>

--- a/Editable.xlsx
+++ b/Editable.xlsx
@@ -414,7 +414,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -654,6 +654,52 @@
       </c>
       <c r="E10" t="n">
         <v>3006854654</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Diego Murillo</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>10</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>dieguitotati@gmail.com</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Itagüi</t>
+        </is>
+      </c>
+      <c r="E11" t="n">
+        <v>3012136598</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Juan Manuel Santamaria</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>11</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>santamariaorrego@gmail.com</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Medellín</t>
+        </is>
+      </c>
+      <c r="E12" t="n">
+        <v>3116700000</v>
       </c>
     </row>
   </sheetData>
@@ -667,7 +713,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -789,6 +835,56 @@
         </is>
       </c>
     </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>10</v>
+      </c>
+      <c r="B6" t="n">
+        <v>5</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">El tamaño del Diamante es 0.5 
+El grabado del Diamante es True 
+El origen del diamante es cenizas 
+El tamaño del Diamante es 0.9 
+El grabado del Diamante es True 
+El origen del diamante es cabello 
+El corte del diamante es corazon 
+</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>20/10/2022</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>11</v>
+      </c>
+      <c r="B7" t="n">
+        <v>6</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">El tamaño del Diamante es 0.2 
+El grabado del Diamante es True 
+El origen del diamante es mascotas 
+El tamaño del Diamante es 1.0 
+El grabado del Diamante es True 
+El origen del diamante es cenizas 
+El corte del diamante es Asscher 
+</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>22/11/2022</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Editable.xlsx
+++ b/Editable.xlsx
@@ -414,7 +414,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E12"/>
+  <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -700,6 +700,52 @@
       </c>
       <c r="E12" t="n">
         <v>3116700000</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Santiago Arango</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>12</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>santi@gmail.com</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Medellín</t>
+        </is>
+      </c>
+      <c r="E13" t="n">
+        <v>7155934</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Bayron Valdés </t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>13</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>bayron2813@gmail.com</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Medellín</t>
+        </is>
+      </c>
+      <c r="E14" t="n">
+        <v>3015168866</v>
       </c>
     </row>
   </sheetData>
@@ -713,7 +759,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -885,6 +931,123 @@
         </is>
       </c>
     </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>12</v>
+      </c>
+      <c r="B8" t="n">
+        <v>7</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">El tamaño del Diamante es 0.3 
+El grabado del Diamante es True 
+El origen del diamante es cabello 
+El tamaño del Diamante es 0.5 
+El grabado del Diamante es True 
+El origen del diamante es cenizas 
+El corte del diamante es corazon 
+</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>31/12/2022</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>13</v>
+      </c>
+      <c r="B9" t="n">
+        <v>8</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">El tamaño del Diamante es 0.8 
+El grabado del Diamante es True 
+El origen del diamante es cenizas 
+El tamaño del Diamante es 0.5 
+El grabado del Diamante es True 
+El origen del diamante es cenizas 
+El corte del diamante es Corazon 
+</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>23/04/2021</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>13</v>
+      </c>
+      <c r="B10" t="n">
+        <v>9</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">El tamaño del Diamante es 0.6 
+El grabado del Diamante es True 
+El origen del diamante es cenizas 
+El tamaño del Diamante es 0.5 
+El grabado del Diamante es True 
+El origen del diamante es cenizas 
+El corte del diamante es corazon 
+</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>20/04/2022</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" t="n">
+        <v>10</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">El tamaño del Diamante es 0.5 
+El grabado del Diamante es True 
+El origen del diamante es cenizas 
+</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>20/04/2022</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="n">
+        <v>11</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">El tamaño del Diamante es 0.6 
+El grabado del Diamante es True 
+El origen del diamante es Cabello 
+</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>21/04/2022</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Editable.xlsx
+++ b/Editable.xlsx
@@ -414,7 +414,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E14"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -493,259 +493,6 @@
       </c>
       <c r="E3" t="n">
         <v>30749423654</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Rostin</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>3</v>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>rostin@gmail.com</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>Guarne</t>
-        </is>
-      </c>
-      <c r="E4" t="n">
-        <v>31245456</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Cristian Franco</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>4</v>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>cristianraigosa@gmail.com</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>Medellín</t>
-        </is>
-      </c>
-      <c r="E5" t="n">
-        <v>3006487895</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>Rodrigo</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>5</v>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>rodrigo@gmail.com</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>Guatape</t>
-        </is>
-      </c>
-      <c r="E6" t="n">
-        <v>3007895465</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>Pedro</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>6</v>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>pedro@hotmail.com</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>Envigado</t>
-        </is>
-      </c>
-      <c r="E7" t="n">
-        <v>3015168866</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>Chucho</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>7</v>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>chucho@soyfeliz.edu.co</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>Python</t>
-        </is>
-      </c>
-      <c r="E8" t="n">
-        <v>3015146861</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>Dieguito</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>8</v>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>dieguito@gmail.com</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>Medellín</t>
-        </is>
-      </c>
-      <c r="E9" t="n">
-        <v>3007900522</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>Jaime Llorente</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>9</v>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>jaime@gmail.com</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>Chigodorodo</t>
-        </is>
-      </c>
-      <c r="E10" t="n">
-        <v>3006854654</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Diego Murillo</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>10</v>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>dieguitotati@gmail.com</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>Itagüi</t>
-        </is>
-      </c>
-      <c r="E11" t="n">
-        <v>3012136598</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Juan Manuel Santamaria</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>11</v>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>santamariaorrego@gmail.com</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>Medellín</t>
-        </is>
-      </c>
-      <c r="E12" t="n">
-        <v>3116700000</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Santiago Arango</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>12</v>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>santi@gmail.com</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>Medellín</t>
-        </is>
-      </c>
-      <c r="E13" t="n">
-        <v>7155934</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Bayron Valdés </t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>13</v>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>bayron2813@gmail.com</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>Medellín</t>
-        </is>
-      </c>
-      <c r="E14" t="n">
-        <v>3015168866</v>
       </c>
     </row>
   </sheetData>
@@ -759,7 +506,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -814,240 +561,6 @@
         </is>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>4</v>
-      </c>
-      <c r="B3" t="n">
-        <v>2</v>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">El tamaño del Diamante es 0.4 
-El grabado del Diamante es True 
-El origen del diamante es cenizas 
-</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>20/04/2010</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>3</v>
-      </c>
-      <c r="B4" t="n">
-        <v>3</v>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">El tamaño del Diamante es 0.4 
-El grabado del Diamante es True 
-El origen del diamante es cenizas 
-</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>20/10/2004</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>7</v>
-      </c>
-      <c r="B5" t="n">
-        <v>4</v>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">El tamaño del Diamante es 0.4 
-El grabado del Diamante es True 
-El origen del diamante es cenizas 
-El tamaño del Diamante es 0.8 
-El grabado del Diamante es True 
-El origen del diamante es cenizas 
-El corte del diamante es corazon 
-</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>20/10/2010</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>10</v>
-      </c>
-      <c r="B6" t="n">
-        <v>5</v>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">El tamaño del Diamante es 0.5 
-El grabado del Diamante es True 
-El origen del diamante es cenizas 
-El tamaño del Diamante es 0.9 
-El grabado del Diamante es True 
-El origen del diamante es cabello 
-El corte del diamante es corazon 
-</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>20/10/2022</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>11</v>
-      </c>
-      <c r="B7" t="n">
-        <v>6</v>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">El tamaño del Diamante es 0.2 
-El grabado del Diamante es True 
-El origen del diamante es mascotas 
-El tamaño del Diamante es 1.0 
-El grabado del Diamante es True 
-El origen del diamante es cenizas 
-El corte del diamante es Asscher 
-</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>22/11/2022</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>12</v>
-      </c>
-      <c r="B8" t="n">
-        <v>7</v>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">El tamaño del Diamante es 0.3 
-El grabado del Diamante es True 
-El origen del diamante es cabello 
-El tamaño del Diamante es 0.5 
-El grabado del Diamante es True 
-El origen del diamante es cenizas 
-El corte del diamante es corazon 
-</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>31/12/2022</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
-        <v>13</v>
-      </c>
-      <c r="B9" t="n">
-        <v>8</v>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t xml:space="preserve">El tamaño del Diamante es 0.8 
-El grabado del Diamante es True 
-El origen del diamante es cenizas 
-El tamaño del Diamante es 0.5 
-El grabado del Diamante es True 
-El origen del diamante es cenizas 
-El corte del diamante es Corazon 
-</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>23/04/2021</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
-        <v>13</v>
-      </c>
-      <c r="B10" t="n">
-        <v>9</v>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t xml:space="preserve">El tamaño del Diamante es 0.6 
-El grabado del Diamante es True 
-El origen del diamante es cenizas 
-El tamaño del Diamante es 0.5 
-El grabado del Diamante es True 
-El origen del diamante es cenizas 
-El corte del diamante es corazon 
-</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>20/04/2022</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
-        <v>10</v>
-      </c>
-      <c r="B11" t="n">
-        <v>10</v>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t xml:space="preserve">El tamaño del Diamante es 0.5 
-El grabado del Diamante es True 
-El origen del diamante es cenizas 
-</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>20/04/2022</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="n">
-        <v>11</v>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t xml:space="preserve">El tamaño del Diamante es 0.6 
-El grabado del Diamante es True 
-El origen del diamante es Cabello 
-</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>21/04/2022</t>
-        </is>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
